--- a/z_document/import_function_template _update.xlsx
+++ b/z_document/import_function_template _update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BXT\Desktop\quanlykho\z_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C9C68-7175-42AC-AABD-B8584E436A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFD44C6-8E23-4210-B6DA-D592AC8034DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>code</t>
   </si>
@@ -45,124 +45,64 @@
     <t>GET</t>
   </si>
   <si>
-    <t>WAREHOUSE_MANAGE</t>
-  </si>
-  <si>
-    <t>api/warehouse</t>
-  </si>
-  <si>
-    <t>SHIPPER_MANAGE</t>
-  </si>
-  <si>
-    <t>api/shipper</t>
-  </si>
-  <si>
-    <t>CUSTOMER_MANAGE</t>
-  </si>
-  <si>
-    <t>api/customer</t>
-  </si>
-  <si>
-    <t>ORDER_MANAGE</t>
-  </si>
-  <si>
-    <t>api/order</t>
-  </si>
-  <si>
-    <t>INVOICE_MANAGE</t>
-  </si>
-  <si>
-    <t>api/invoice</t>
-  </si>
-  <si>
-    <t>CARTON_MANAGE</t>
-  </si>
-  <si>
-    <t>api/carton</t>
-  </si>
-  <si>
-    <t>PRODUCT_MANAGE</t>
-  </si>
-  <si>
-    <t>api/product</t>
-  </si>
-  <si>
-    <t>FUNCTION_MANAGE</t>
-  </si>
-  <si>
-    <t>api/function</t>
-  </si>
-  <si>
-    <t>WAREHOUSE_LIST</t>
-  </si>
-  <si>
-    <t>List Warehouse</t>
-  </si>
-  <si>
-    <t>SHIPPER_LIST</t>
-  </si>
-  <si>
-    <t>List Shipper</t>
-  </si>
-  <si>
-    <t>CUSTOMER_LIST</t>
-  </si>
-  <si>
-    <t>List Customer</t>
-  </si>
-  <si>
-    <t>ORDER_LIST</t>
-  </si>
-  <si>
-    <t>List Order</t>
-  </si>
-  <si>
-    <t>INVOICE_LIST</t>
-  </si>
-  <si>
-    <t>List Invoice</t>
-  </si>
-  <si>
-    <t>CARTON_LIST</t>
-  </si>
-  <si>
-    <t>List Carton</t>
-  </si>
-  <si>
-    <t>PRODUCT_LIST</t>
-  </si>
-  <si>
-    <t>List Product</t>
-  </si>
-  <si>
-    <t>FUNCTION_LIST</t>
-  </si>
-  <si>
-    <t>List Function</t>
-  </si>
-  <si>
-    <t>USER_LIST</t>
-  </si>
-  <si>
-    <t>List User</t>
-  </si>
-  <si>
-    <t>USER_MANAGE</t>
-  </si>
-  <si>
-    <t>ROLE_LIST</t>
-  </si>
-  <si>
-    <t>ROLE_MANAGE</t>
-  </si>
-  <si>
-    <t>api/role</t>
-  </si>
-  <si>
-    <t>List Role</t>
-  </si>
-  <si>
-    <t>api/user</t>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>CATEGORY_MANAGE</t>
+  </si>
+  <si>
+    <t>CATEGORY_DETAIL</t>
+  </si>
+  <si>
+    <t>CATEGORY_CREATE</t>
+  </si>
+  <si>
+    <t>CATEGORY_UPDATE</t>
+  </si>
+  <si>
+    <t>CATEGORY_DELETE</t>
+  </si>
+  <si>
+    <t>CATEGORY_LIST</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Detail Category</t>
+  </si>
+  <si>
+    <t>Create Category</t>
+  </si>
+  <si>
+    <t>Update Category</t>
+  </si>
+  <si>
+    <t>Delete Category</t>
+  </si>
+  <si>
+    <t>List Category</t>
+  </si>
+  <si>
+    <t>api/category</t>
+  </si>
+  <si>
+    <t>api/category/{id}</t>
+  </si>
+  <si>
+    <t>api/category/create</t>
+  </si>
+  <si>
+    <t>api/category/update/{id}</t>
+  </si>
+  <si>
+    <t>api/category/delete/{id}</t>
   </si>
 </sst>
 </file>
@@ -503,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,173 +476,120 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
